--- a/src/migracion/outputs/Facturas_1T25.xlsx
+++ b/src/migracion/outputs/Facturas_1T25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="962">
   <si>
     <t>#</t>
   </si>
@@ -2897,9 +2897,6 @@
   </si>
   <si>
     <t>DESCUADRE: -54.11€</t>
-  </si>
-  <si>
-    <t>DESCUADRE: -95.00€</t>
   </si>
   <si>
     <t>DESCUADRE: +59.22€</t>
@@ -20987,7 +20984,7 @@
         <v>510</v>
       </c>
       <c r="J612" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="613" spans="1:10">
@@ -21016,7 +21013,7 @@
         <v>510</v>
       </c>
       <c r="J613" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="614" spans="1:10">
@@ -21551,7 +21548,7 @@
         <v>510</v>
       </c>
       <c r="J630" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="631" spans="1:10">
@@ -21676,7 +21673,7 @@
         <v>510</v>
       </c>
       <c r="J634" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="635" spans="1:10">
@@ -22455,7 +22452,7 @@
         <v>510</v>
       </c>
       <c r="J659" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="660" spans="1:10">
@@ -22580,7 +22577,7 @@
         <v>510</v>
       </c>
       <c r="J663" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="664" spans="1:10">
@@ -25048,7 +25045,7 @@
         <v>75.06999999999999</v>
       </c>
       <c r="J742" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="743" spans="1:10">

--- a/src/migracion/outputs/Facturas_1T25.xlsx
+++ b/src/migracion/outputs/Facturas_1T25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="959">
   <si>
     <t>#</t>
   </si>
@@ -2869,9 +2869,6 @@
     <t>TARALLI</t>
   </si>
   <si>
-    <t>DESCUADRE: -75.33€</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -2884,13 +2881,7 @@
     <t>DESCUADRE: +15.00€</t>
   </si>
   <si>
-    <t>DESCUADRE: -20.05€</t>
-  </si>
-  <si>
     <t>DESCUADRE: -50.26€</t>
-  </si>
-  <si>
-    <t>DESCUADRE: -76.32€</t>
   </si>
   <si>
     <t>DESCUADRE: +2.24€</t>
@@ -3321,7 +3312,7 @@
         <v>5.48</v>
       </c>
       <c r="I2">
-        <v>5.52</v>
+        <v>80.84</v>
       </c>
       <c r="J2" t="s">
         <v>951</v>
@@ -3353,7 +3344,7 @@
         <v>12.6</v>
       </c>
       <c r="I3">
-        <v>5.52</v>
+        <v>80.84</v>
       </c>
       <c r="J3" t="s">
         <v>951</v>
@@ -3385,7 +3376,7 @@
         <v>25.2</v>
       </c>
       <c r="I4">
-        <v>5.52</v>
+        <v>80.84</v>
       </c>
       <c r="J4" t="s">
         <v>951</v>
@@ -3417,7 +3408,7 @@
         <v>16.54</v>
       </c>
       <c r="I5">
-        <v>5.52</v>
+        <v>80.84</v>
       </c>
       <c r="J5" t="s">
         <v>951</v>
@@ -3449,7 +3440,7 @@
         <v>13.68</v>
       </c>
       <c r="I6">
-        <v>5.52</v>
+        <v>80.84</v>
       </c>
       <c r="J6" t="s">
         <v>951</v>
@@ -3484,7 +3475,7 @@
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3516,7 +3507,7 @@
         <v>309.91</v>
       </c>
       <c r="J8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3548,7 +3539,7 @@
         <v>309.91</v>
       </c>
       <c r="J9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3580,7 +3571,7 @@
         <v>107.8</v>
       </c>
       <c r="J10" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3612,7 +3603,7 @@
         <v>107.8</v>
       </c>
       <c r="J11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3644,7 +3635,7 @@
         <v>107.8</v>
       </c>
       <c r="J12" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3695,7 +3686,7 @@
         <v>9.9</v>
       </c>
       <c r="J15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3724,7 +3715,7 @@
         <v>8.4</v>
       </c>
       <c r="J16" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3753,7 +3744,7 @@
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3782,7 +3773,7 @@
         <v>16.2</v>
       </c>
       <c r="J18" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3811,7 +3802,7 @@
         <v>16.2</v>
       </c>
       <c r="J19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3840,7 +3831,7 @@
         <v>9.6</v>
       </c>
       <c r="J20" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3869,7 +3860,7 @@
         <v>52.8</v>
       </c>
       <c r="J21" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3909,7 +3900,7 @@
         <v>94.2</v>
       </c>
       <c r="J23" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3938,7 +3929,7 @@
         <v>119.04</v>
       </c>
       <c r="J24" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3970,7 +3961,7 @@
         <v>143.75</v>
       </c>
       <c r="J25" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4002,7 +3993,7 @@
         <v>46.53</v>
       </c>
       <c r="J26" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4034,7 +4025,7 @@
         <v>46.53</v>
       </c>
       <c r="J27" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4066,7 +4057,7 @@
         <v>341.8</v>
       </c>
       <c r="J28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4095,7 +4086,7 @@
         <v>196.32</v>
       </c>
       <c r="J29" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4124,7 +4115,7 @@
         <v>196.32</v>
       </c>
       <c r="J30" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4153,7 +4144,7 @@
         <v>196.32</v>
       </c>
       <c r="J31" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4182,7 +4173,7 @@
         <v>193.64</v>
       </c>
       <c r="J32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4211,7 +4202,7 @@
         <v>100.57</v>
       </c>
       <c r="J33" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4240,7 +4231,7 @@
         <v>64.65000000000001</v>
       </c>
       <c r="J34" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4269,7 +4260,7 @@
         <v>64.65000000000001</v>
       </c>
       <c r="J35" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4298,7 +4289,7 @@
         <v>31.02</v>
       </c>
       <c r="J36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4327,7 +4318,7 @@
         <v>77.56</v>
       </c>
       <c r="J37" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4378,7 +4369,7 @@
         <v>51.67</v>
       </c>
       <c r="J40" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -4407,7 +4398,7 @@
         <v>67.65000000000001</v>
       </c>
       <c r="J41" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4439,7 +4430,7 @@
         <v>389.5</v>
       </c>
       <c r="J42" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4471,7 +4462,7 @@
         <v>389.5</v>
       </c>
       <c r="J43" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4500,7 +4491,7 @@
         <v>45.36</v>
       </c>
       <c r="J44" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -4532,7 +4523,7 @@
         <v>334.22</v>
       </c>
       <c r="J45" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -4564,7 +4555,7 @@
         <v>334.22</v>
       </c>
       <c r="J46" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4596,7 +4587,7 @@
         <v>334.22</v>
       </c>
       <c r="J47" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4628,7 +4619,7 @@
         <v>334.22</v>
       </c>
       <c r="J48" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -4660,7 +4651,7 @@
         <v>334.22</v>
       </c>
       <c r="J49" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4692,7 +4683,7 @@
         <v>334.22</v>
       </c>
       <c r="J50" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4724,7 +4715,7 @@
         <v>334.22</v>
       </c>
       <c r="J51" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4753,7 +4744,7 @@
         <v>24.52</v>
       </c>
       <c r="J52" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4779,7 +4770,7 @@
         <v>29.94</v>
       </c>
       <c r="J53" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4808,7 +4799,7 @@
         <v>16.94</v>
       </c>
       <c r="J54" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4837,7 +4828,7 @@
         <v>26.3</v>
       </c>
       <c r="J55" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4877,7 +4868,7 @@
         <v>51.85</v>
       </c>
       <c r="J57" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4906,7 +4897,7 @@
         <v>25.92</v>
       </c>
       <c r="J58" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4943,7 +4934,7 @@
         <v>435.6</v>
       </c>
       <c r="J60" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4975,7 +4966,7 @@
         <v>264.33</v>
       </c>
       <c r="J61" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -5007,7 +4998,7 @@
         <v>264.33</v>
       </c>
       <c r="J62" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -5039,7 +5030,7 @@
         <v>264.33</v>
       </c>
       <c r="J63" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -5071,7 +5062,7 @@
         <v>264.33</v>
       </c>
       <c r="J64" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -5103,7 +5094,7 @@
         <v>264.33</v>
       </c>
       <c r="J65" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -5135,7 +5126,7 @@
         <v>264.33</v>
       </c>
       <c r="J66" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -5167,7 +5158,7 @@
         <v>264.33</v>
       </c>
       <c r="J67" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -5199,7 +5190,7 @@
         <v>264.33</v>
       </c>
       <c r="J68" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -5228,7 +5219,7 @@
         <v>43.4</v>
       </c>
       <c r="J69" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -5257,7 +5248,7 @@
         <v>87.75</v>
       </c>
       <c r="J70" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -5289,7 +5280,7 @@
         <v>280.43</v>
       </c>
       <c r="J71" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -5321,7 +5312,7 @@
         <v>280.43</v>
       </c>
       <c r="J72" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -5353,7 +5344,7 @@
         <v>280.43</v>
       </c>
       <c r="J73" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -5385,7 +5376,7 @@
         <v>280.43</v>
       </c>
       <c r="J74" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -5417,7 +5408,7 @@
         <v>280.43</v>
       </c>
       <c r="J75" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -5440,7 +5431,7 @@
         <v>871</v>
       </c>
       <c r="J76" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -5469,7 +5460,7 @@
         <v>70</v>
       </c>
       <c r="J77" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -5498,7 +5489,7 @@
         <v>105</v>
       </c>
       <c r="J78" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -5527,7 +5518,7 @@
         <v>95.16</v>
       </c>
       <c r="J79" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -5556,7 +5547,7 @@
         <v>2.78</v>
       </c>
       <c r="J80" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -5585,7 +5576,7 @@
         <v>12.6</v>
       </c>
       <c r="J81" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -5614,7 +5605,7 @@
         <v>16.11</v>
       </c>
       <c r="J82" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -5643,7 +5634,7 @@
         <v>17</v>
       </c>
       <c r="J83" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -5672,7 +5663,7 @@
         <v>15.75</v>
       </c>
       <c r="J84" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -5701,7 +5692,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="J85" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -5730,7 +5721,7 @@
         <v>19.6</v>
       </c>
       <c r="J86" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -5759,7 +5750,7 @@
         <v>29.4</v>
       </c>
       <c r="J87" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -5788,7 +5779,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="J88" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5817,7 +5808,7 @@
         <v>15.75</v>
       </c>
       <c r="J89" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -5846,7 +5837,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="J90" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -5875,7 +5866,7 @@
         <v>18</v>
       </c>
       <c r="J91" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -5904,7 +5895,7 @@
         <v>17</v>
       </c>
       <c r="J92" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -5933,7 +5924,7 @@
         <v>19.46</v>
       </c>
       <c r="J93" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -5962,7 +5953,7 @@
         <v>47.58</v>
       </c>
       <c r="J94" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -5991,7 +5982,7 @@
         <v>47.58</v>
       </c>
       <c r="J95" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -6020,7 +6011,7 @@
         <v>10.5</v>
       </c>
       <c r="J96" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -6049,7 +6040,7 @@
         <v>5.25</v>
       </c>
       <c r="J97" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -6081,7 +6072,7 @@
         <v>194.58</v>
       </c>
       <c r="J98" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -6104,7 +6095,7 @@
         <v>871</v>
       </c>
       <c r="J99" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -6130,7 +6121,7 @@
         <v>58.08</v>
       </c>
       <c r="J100" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -6150,7 +6141,7 @@
         <v>871</v>
       </c>
       <c r="J101" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -6179,7 +6170,7 @@
         <v>157.44</v>
       </c>
       <c r="J102" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -6208,7 +6199,7 @@
         <v>50.5</v>
       </c>
       <c r="J103" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -6228,7 +6219,7 @@
         <v>871</v>
       </c>
       <c r="J104" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -6257,7 +6248,7 @@
         <v>288</v>
       </c>
       <c r="J105" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -6286,7 +6277,7 @@
         <v>152.96</v>
       </c>
       <c r="J106" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -6315,7 +6306,7 @@
         <v>40</v>
       </c>
       <c r="J107" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -6344,7 +6335,7 @@
         <v>8.01</v>
       </c>
       <c r="J108" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -6373,7 +6364,7 @@
         <v>37.82</v>
       </c>
       <c r="J109" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -6402,7 +6393,7 @@
         <v>144</v>
       </c>
       <c r="J110" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -6431,7 +6422,7 @@
         <v>7.65</v>
       </c>
       <c r="J111" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -6460,7 +6451,7 @@
         <v>49.6</v>
       </c>
       <c r="J112" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -6489,7 +6480,7 @@
         <v>120</v>
       </c>
       <c r="J113" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -6518,7 +6509,7 @@
         <v>8.19</v>
       </c>
       <c r="J114" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -6550,7 +6541,7 @@
         <v>662.34</v>
       </c>
       <c r="J115" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -6582,7 +6573,7 @@
         <v>662.34</v>
       </c>
       <c r="J116" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -6614,7 +6605,7 @@
         <v>662.34</v>
       </c>
       <c r="J117" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -6646,7 +6637,7 @@
         <v>662.34</v>
       </c>
       <c r="J118" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -6678,7 +6669,7 @@
         <v>662.34</v>
       </c>
       <c r="J119" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -6710,7 +6701,7 @@
         <v>662.34</v>
       </c>
       <c r="J120" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -6742,7 +6733,7 @@
         <v>662.34</v>
       </c>
       <c r="J121" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -6774,7 +6765,7 @@
         <v>662.34</v>
       </c>
       <c r="J122" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -6806,7 +6797,7 @@
         <v>662.34</v>
       </c>
       <c r="J123" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -6838,7 +6829,7 @@
         <v>662.34</v>
       </c>
       <c r="J124" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -6870,7 +6861,7 @@
         <v>662.34</v>
       </c>
       <c r="J125" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -6902,7 +6893,7 @@
         <v>662.34</v>
       </c>
       <c r="J126" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -6934,7 +6925,7 @@
         <v>662.34</v>
       </c>
       <c r="J127" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -6966,7 +6957,7 @@
         <v>662.34</v>
       </c>
       <c r="J128" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -6998,7 +6989,7 @@
         <v>662.34</v>
       </c>
       <c r="J129" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -7030,7 +7021,7 @@
         <v>662.34</v>
       </c>
       <c r="J130" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -7062,7 +7053,7 @@
         <v>662.34</v>
       </c>
       <c r="J131" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -7094,7 +7085,7 @@
         <v>130.68</v>
       </c>
       <c r="J132" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -7134,7 +7125,7 @@
         <v>54.04</v>
       </c>
       <c r="J134" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -7166,7 +7157,7 @@
         <v>32.2</v>
       </c>
       <c r="J135" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -7195,7 +7186,7 @@
         <v>19.2</v>
       </c>
       <c r="J136" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -7224,7 +7215,7 @@
         <v>43.2</v>
       </c>
       <c r="J137" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -7253,7 +7244,7 @@
         <v>47.2</v>
       </c>
       <c r="J138" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -7282,7 +7273,7 @@
         <v>25.4</v>
       </c>
       <c r="J139" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -7311,7 +7302,7 @@
         <v>21.8</v>
       </c>
       <c r="J140" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -7340,7 +7331,7 @@
         <v>15.3</v>
       </c>
       <c r="J141" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -7369,7 +7360,7 @@
         <v>10.25</v>
       </c>
       <c r="J142" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -7398,7 +7389,7 @@
         <v>21.6</v>
       </c>
       <c r="J143" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -7427,7 +7418,7 @@
         <v>35.4</v>
       </c>
       <c r="J144" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -7456,7 +7447,7 @@
         <v>16.5</v>
       </c>
       <c r="J145" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -7485,7 +7476,7 @@
         <v>21</v>
       </c>
       <c r="J146" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -7514,7 +7505,7 @@
         <v>15.9</v>
       </c>
       <c r="J147" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -7543,7 +7534,7 @@
         <v>13.65</v>
       </c>
       <c r="J148" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -7572,7 +7563,7 @@
         <v>12.7</v>
       </c>
       <c r="J149" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -7601,7 +7592,7 @@
         <v>11.75</v>
       </c>
       <c r="J150" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -7630,7 +7621,7 @@
         <v>19.2</v>
       </c>
       <c r="J151" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -7659,7 +7650,7 @@
         <v>19.9</v>
       </c>
       <c r="J152" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -7688,7 +7679,7 @@
         <v>10.2</v>
       </c>
       <c r="J153" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -7717,7 +7708,7 @@
         <v>35.4</v>
       </c>
       <c r="J154" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -7746,7 +7737,7 @@
         <v>33.9</v>
       </c>
       <c r="J155" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -7775,7 +7766,7 @@
         <v>11.25</v>
       </c>
       <c r="J156" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -7804,7 +7795,7 @@
         <v>43.2</v>
       </c>
       <c r="J157" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -7833,7 +7824,7 @@
         <v>30.9</v>
       </c>
       <c r="J158" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -7862,7 +7853,7 @@
         <v>21.6</v>
       </c>
       <c r="J159" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -7891,7 +7882,7 @@
         <v>16.5</v>
       </c>
       <c r="J160" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -7920,7 +7911,7 @@
         <v>15.9</v>
       </c>
       <c r="J161" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -7949,7 +7940,7 @@
         <v>27.3</v>
       </c>
       <c r="J162" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -7978,7 +7969,7 @@
         <v>11.25</v>
       </c>
       <c r="J163" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -8007,7 +7998,7 @@
         <v>19.2</v>
       </c>
       <c r="J164" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -8036,7 +8027,7 @@
         <v>14.8</v>
       </c>
       <c r="J165" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -8065,7 +8056,7 @@
         <v>14.8</v>
       </c>
       <c r="J166" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -8094,7 +8085,7 @@
         <v>45</v>
       </c>
       <c r="J167" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -8123,7 +8114,7 @@
         <v>24.6</v>
       </c>
       <c r="J168" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -8152,7 +8143,7 @@
         <v>26.4</v>
       </c>
       <c r="J169" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -8181,7 +8172,7 @@
         <v>35.5</v>
       </c>
       <c r="J170" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -8210,7 +8201,7 @@
         <v>14.1</v>
       </c>
       <c r="J171" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -8239,7 +8230,7 @@
         <v>26.02</v>
       </c>
       <c r="J172" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -8268,7 +8259,7 @@
         <v>14.26</v>
       </c>
       <c r="J173" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -8297,7 +8288,7 @@
         <v>19.88</v>
       </c>
       <c r="J174" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -8326,7 +8317,7 @@
         <v>25.56</v>
       </c>
       <c r="J175" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -8355,7 +8346,7 @@
         <v>28.05</v>
       </c>
       <c r="J176" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -8384,7 +8375,7 @@
         <v>25.56</v>
       </c>
       <c r="J177" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -8413,7 +8404,7 @@
         <v>19.88</v>
       </c>
       <c r="J178" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -8442,7 +8433,7 @@
         <v>13.01</v>
       </c>
       <c r="J179" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -8471,7 +8462,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="J180" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -8503,7 +8494,7 @@
         <v>164.8</v>
       </c>
       <c r="J181" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -8532,7 +8523,7 @@
         <v>43.78</v>
       </c>
       <c r="J182" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -8561,7 +8552,7 @@
         <v>21</v>
       </c>
       <c r="J183" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -8590,7 +8581,7 @@
         <v>20.4</v>
       </c>
       <c r="J184" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -8619,7 +8610,7 @@
         <v>28</v>
       </c>
       <c r="J185" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -8648,7 +8639,7 @@
         <v>17</v>
       </c>
       <c r="J186" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -8677,7 +8668,7 @@
         <v>27.2</v>
       </c>
       <c r="J187" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -8706,7 +8697,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="J188" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -8735,7 +8726,7 @@
         <v>29.89</v>
       </c>
       <c r="J189" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -8764,7 +8755,7 @@
         <v>21.64</v>
       </c>
       <c r="J190" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -8793,7 +8784,7 @@
         <v>27.2</v>
       </c>
       <c r="J191" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -8822,7 +8813,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="J192" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -8851,7 +8842,7 @@
         <v>29.89</v>
       </c>
       <c r="J193" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -8880,7 +8871,7 @@
         <v>21.64</v>
       </c>
       <c r="J194" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -8909,7 +8900,7 @@
         <v>27.2</v>
       </c>
       <c r="J195" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -8938,7 +8929,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="J196" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -8967,7 +8958,7 @@
         <v>21.64</v>
       </c>
       <c r="J197" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -8996,7 +8987,7 @@
         <v>29.89</v>
       </c>
       <c r="J198" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -9025,7 +9016,7 @@
         <v>172.22</v>
       </c>
       <c r="J199" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -9057,7 +9048,7 @@
         <v>48.23</v>
       </c>
       <c r="J200" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -9089,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="J201" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -9129,7 +9120,7 @@
         <v>165.22</v>
       </c>
       <c r="J203" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -9158,7 +9149,7 @@
         <v>12</v>
       </c>
       <c r="J204" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -9192,7 +9183,7 @@
         <v>871</v>
       </c>
       <c r="J206" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -9221,7 +9212,7 @@
         <v>242</v>
       </c>
       <c r="J207" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -9253,7 +9244,7 @@
         <v>108.38</v>
       </c>
       <c r="J208" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -9285,7 +9276,7 @@
         <v>243</v>
       </c>
       <c r="J209" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -9305,7 +9296,7 @@
         <v>871</v>
       </c>
       <c r="J210" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -9334,7 +9325,7 @@
         <v>92.31</v>
       </c>
       <c r="J211" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -9374,7 +9365,7 @@
         <v>119.04</v>
       </c>
       <c r="J213" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -9414,7 +9405,7 @@
         <v>208.64</v>
       </c>
       <c r="J215" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -9443,7 +9434,7 @@
         <v>17.58</v>
       </c>
       <c r="J216" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -9472,7 +9463,7 @@
         <v>64.18000000000001</v>
       </c>
       <c r="J217" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -9501,7 +9492,7 @@
         <v>33.1</v>
       </c>
       <c r="J218" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -9533,7 +9524,7 @@
         <v>44.18</v>
       </c>
       <c r="J219" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -9565,7 +9556,7 @@
         <v>44.18</v>
       </c>
       <c r="J220" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -9594,7 +9585,7 @@
         <v>9.9</v>
       </c>
       <c r="J221" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -9623,7 +9614,7 @@
         <v>8.4</v>
       </c>
       <c r="J222" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -9652,7 +9643,7 @@
         <v>15.24</v>
       </c>
       <c r="J223" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -9681,7 +9672,7 @@
         <v>16.2</v>
       </c>
       <c r="J224" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -9710,7 +9701,7 @@
         <v>16.2</v>
       </c>
       <c r="J225" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -9739,7 +9730,7 @@
         <v>4.8</v>
       </c>
       <c r="J226" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -9768,7 +9759,7 @@
         <v>5.22</v>
       </c>
       <c r="J227" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -9797,7 +9788,7 @@
         <v>52.8</v>
       </c>
       <c r="J228" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -9829,7 +9820,7 @@
         <v>28.38</v>
       </c>
       <c r="J229" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -9861,7 +9852,7 @@
         <v>44.22</v>
       </c>
       <c r="J230" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -9878,7 +9869,7 @@
         <v>871</v>
       </c>
       <c r="J231" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -9929,7 +9920,7 @@
         <v>93.59999999999999</v>
       </c>
       <c r="J234" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -9961,7 +9952,7 @@
         <v>244.87</v>
       </c>
       <c r="J235" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -9993,7 +9984,7 @@
         <v>244.87</v>
       </c>
       <c r="J236" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -10025,7 +10016,7 @@
         <v>244.87</v>
       </c>
       <c r="J237" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -10057,7 +10048,7 @@
         <v>244.87</v>
       </c>
       <c r="J238" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -10086,7 +10077,7 @@
         <v>230.2</v>
       </c>
       <c r="J239" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -10115,7 +10106,7 @@
         <v>230.2</v>
       </c>
       <c r="J240" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -10144,7 +10135,7 @@
         <v>230.2</v>
       </c>
       <c r="J241" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -10167,13 +10158,13 @@
         <v>10</v>
       </c>
       <c r="H242">
-        <v>87.36</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="I242">
-        <v>200.52</v>
+        <v>232.55</v>
       </c>
       <c r="J242" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -10196,13 +10187,13 @@
         <v>10</v>
       </c>
       <c r="H243">
-        <v>30.6</v>
+        <v>32.26</v>
       </c>
       <c r="I243">
-        <v>200.52</v>
+        <v>232.55</v>
       </c>
       <c r="J243" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -10225,13 +10216,13 @@
         <v>10</v>
       </c>
       <c r="H244">
-        <v>82.56</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="I244">
-        <v>200.52</v>
+        <v>232.55</v>
       </c>
       <c r="J244" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -10271,7 +10262,7 @@
         <v>70</v>
       </c>
       <c r="J246" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -10300,7 +10291,7 @@
         <v>90</v>
       </c>
       <c r="J247" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -10326,7 +10317,7 @@
         <v>252</v>
       </c>
       <c r="J248" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -10358,7 +10349,7 @@
         <v>666.3</v>
       </c>
       <c r="J249" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -10390,7 +10381,7 @@
         <v>666.3</v>
       </c>
       <c r="J250" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -10422,7 +10413,7 @@
         <v>666.3</v>
       </c>
       <c r="J251" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -10454,7 +10445,7 @@
         <v>666.3</v>
       </c>
       <c r="J252" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -10483,7 +10474,7 @@
         <v>14.9</v>
       </c>
       <c r="J253" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -10509,7 +10500,7 @@
         <v>153.27</v>
       </c>
       <c r="J254" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -10552,7 +10543,7 @@
         <v>339.06</v>
       </c>
       <c r="J256" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -10575,7 +10566,7 @@
         <v>871</v>
       </c>
       <c r="J257" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -10595,7 +10586,7 @@
         <v>871</v>
       </c>
       <c r="J258" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -10618,7 +10609,7 @@
         <v>871</v>
       </c>
       <c r="J259" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -10650,7 +10641,7 @@
         <v>105.48</v>
       </c>
       <c r="J260" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -10682,7 +10673,7 @@
         <v>105.48</v>
       </c>
       <c r="J261" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -10714,7 +10705,7 @@
         <v>210</v>
       </c>
       <c r="J262" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -10743,7 +10734,7 @@
         <v>67.5</v>
       </c>
       <c r="J263" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -10772,7 +10763,7 @@
         <v>19.46</v>
       </c>
       <c r="J264" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -10801,7 +10792,7 @@
         <v>18.9</v>
       </c>
       <c r="J265" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -10830,7 +10821,7 @@
         <v>17</v>
       </c>
       <c r="J266" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -10859,7 +10850,7 @@
         <v>95.16</v>
       </c>
       <c r="J267" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -10888,7 +10879,7 @@
         <v>47.58</v>
       </c>
       <c r="J268" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -10917,7 +10908,7 @@
         <v>6.3</v>
       </c>
       <c r="J269" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -10946,7 +10937,7 @@
         <v>6.3</v>
       </c>
       <c r="J270" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -10975,7 +10966,7 @@
         <v>25.2</v>
       </c>
       <c r="J271" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -11004,7 +10995,7 @@
         <v>95.16</v>
       </c>
       <c r="J272" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -11033,7 +11024,7 @@
         <v>12.6</v>
       </c>
       <c r="J273" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -11062,7 +11053,7 @@
         <v>10.5</v>
       </c>
       <c r="J274" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -11091,7 +11082,7 @@
         <v>21.28</v>
       </c>
       <c r="J275" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -11120,7 +11111,7 @@
         <v>4.56</v>
       </c>
       <c r="J276" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -11149,7 +11140,7 @@
         <v>12.6</v>
       </c>
       <c r="J277" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -11178,7 +11169,7 @@
         <v>12.6</v>
       </c>
       <c r="J278" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -11207,7 +11198,7 @@
         <v>19.6</v>
       </c>
       <c r="J279" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -11236,7 +11227,7 @@
         <v>19.6</v>
       </c>
       <c r="J280" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -11265,7 +11256,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="J281" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -11294,7 +11285,7 @@
         <v>29.4</v>
       </c>
       <c r="J282" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -11323,7 +11314,7 @@
         <v>17</v>
       </c>
       <c r="J283" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -11352,7 +11343,7 @@
         <v>37.8</v>
       </c>
       <c r="J284" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -11381,7 +11372,7 @@
         <v>288</v>
       </c>
       <c r="J285" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -11410,7 +11401,7 @@
         <v>55.34</v>
       </c>
       <c r="J286" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -11439,7 +11430,7 @@
         <v>168</v>
       </c>
       <c r="J287" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -11468,7 +11459,7 @@
         <v>146.51</v>
       </c>
       <c r="J288" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -11497,7 +11488,7 @@
         <v>40</v>
       </c>
       <c r="J289" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -11526,7 +11517,7 @@
         <v>11.39</v>
       </c>
       <c r="J290" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -11555,7 +11546,7 @@
         <v>52.08</v>
       </c>
       <c r="J291" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -11584,7 +11575,7 @@
         <v>240</v>
       </c>
       <c r="J292" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -11613,7 +11604,7 @@
         <v>10.57</v>
       </c>
       <c r="J293" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -11642,7 +11633,7 @@
         <v>216</v>
       </c>
       <c r="J294" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -11671,7 +11662,7 @@
         <v>231.35</v>
       </c>
       <c r="J295" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -11700,7 +11691,7 @@
         <v>350.6</v>
       </c>
       <c r="J296" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -11729,7 +11720,7 @@
         <v>20.21</v>
       </c>
       <c r="J297" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -11746,7 +11737,7 @@
         <v>871</v>
       </c>
       <c r="J298" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -11775,7 +11766,7 @@
         <v>25.92</v>
       </c>
       <c r="J299" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -11804,7 +11795,7 @@
         <v>25.92</v>
       </c>
       <c r="J300" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -11833,7 +11824,7 @@
         <v>25.92</v>
       </c>
       <c r="J301" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -11865,7 +11856,7 @@
         <v>98.01000000000001</v>
       </c>
       <c r="J302" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -11894,7 +11885,7 @@
         <v>252</v>
       </c>
       <c r="J303" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -11923,7 +11914,7 @@
         <v>55.16</v>
       </c>
       <c r="J304" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -11955,7 +11946,7 @@
         <v>57.4</v>
       </c>
       <c r="J305" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -11987,7 +11978,7 @@
         <v>57.4</v>
       </c>
       <c r="J306" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -12016,7 +12007,7 @@
         <v>43.2</v>
       </c>
       <c r="J307" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -12045,7 +12036,7 @@
         <v>35.7</v>
       </c>
       <c r="J308" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -12074,7 +12065,7 @@
         <v>16.5</v>
       </c>
       <c r="J309" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -12103,7 +12094,7 @@
         <v>11.75</v>
       </c>
       <c r="J310" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -12132,7 +12123,7 @@
         <v>13.65</v>
       </c>
       <c r="J311" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -12161,7 +12152,7 @@
         <v>33.9</v>
       </c>
       <c r="J312" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -12190,7 +12181,7 @@
         <v>41.7</v>
       </c>
       <c r="J313" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -12219,7 +12210,7 @@
         <v>43.2</v>
       </c>
       <c r="J314" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -12248,7 +12239,7 @@
         <v>18</v>
       </c>
       <c r="J315" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -12277,7 +12268,7 @@
         <v>11.75</v>
       </c>
       <c r="J316" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -12306,7 +12297,7 @@
         <v>12.7</v>
       </c>
       <c r="J317" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -12335,7 +12326,7 @@
         <v>10.95</v>
       </c>
       <c r="J318" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -12364,7 +12355,7 @@
         <v>11.75</v>
       </c>
       <c r="J319" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -12393,7 +12384,7 @@
         <v>27.3</v>
       </c>
       <c r="J320" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -12422,7 +12413,7 @@
         <v>25.4</v>
       </c>
       <c r="J321" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -12451,7 +12442,7 @@
         <v>7.65</v>
       </c>
       <c r="J322" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -12480,7 +12471,7 @@
         <v>35.7</v>
       </c>
       <c r="J323" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -12509,7 +12500,7 @@
         <v>67.8</v>
       </c>
       <c r="J324" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -12538,7 +12529,7 @@
         <v>18</v>
       </c>
       <c r="J325" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -12567,7 +12558,7 @@
         <v>7.95</v>
       </c>
       <c r="J326" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -12596,7 +12587,7 @@
         <v>14.95</v>
       </c>
       <c r="J327" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -12625,7 +12616,7 @@
         <v>7.65</v>
       </c>
       <c r="J328" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -12654,7 +12645,7 @@
         <v>10.25</v>
       </c>
       <c r="J329" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -12683,7 +12674,7 @@
         <v>65.40000000000001</v>
       </c>
       <c r="J330" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -12712,7 +12703,7 @@
         <v>16.5</v>
       </c>
       <c r="J331" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -12741,7 +12732,7 @@
         <v>43.2</v>
       </c>
       <c r="J332" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -12770,7 +12761,7 @@
         <v>38.7</v>
       </c>
       <c r="J333" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -12799,7 +12790,7 @@
         <v>16.5</v>
       </c>
       <c r="J334" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -12828,7 +12819,7 @@
         <v>33.9</v>
       </c>
       <c r="J335" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -12857,7 +12848,7 @@
         <v>25.4</v>
       </c>
       <c r="J336" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="337" spans="1:10">
@@ -12886,7 +12877,7 @@
         <v>14.8</v>
       </c>
       <c r="J337" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="338" spans="1:10">
@@ -12915,7 +12906,7 @@
         <v>75.59999999999999</v>
       </c>
       <c r="J338" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="339" spans="1:10">
@@ -12944,7 +12935,7 @@
         <v>35.5</v>
       </c>
       <c r="J339" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="340" spans="1:10">
@@ -12973,7 +12964,7 @@
         <v>14.26</v>
       </c>
       <c r="J340" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="341" spans="1:10">
@@ -13002,7 +12993,7 @@
         <v>26.02</v>
       </c>
       <c r="J341" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="342" spans="1:10">
@@ -13031,7 +13022,7 @@
         <v>19.88</v>
       </c>
       <c r="J342" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="343" spans="1:10">
@@ -13060,7 +13051,7 @@
         <v>25.56</v>
       </c>
       <c r="J343" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="344" spans="1:10">
@@ -13089,7 +13080,7 @@
         <v>35.17</v>
       </c>
       <c r="J344" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="345" spans="1:10">
@@ -13121,7 +13112,7 @@
         <v>156.1</v>
       </c>
       <c r="J345" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="346" spans="1:10">
@@ -13150,7 +13141,7 @@
         <v>42</v>
       </c>
       <c r="J346" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -13179,7 +13170,7 @@
         <v>42</v>
       </c>
       <c r="J347" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="348" spans="1:10">
@@ -13208,7 +13199,7 @@
         <v>30.6</v>
       </c>
       <c r="J348" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="349" spans="1:10">
@@ -13237,7 +13228,7 @@
         <v>7.06</v>
       </c>
       <c r="J349" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="350" spans="1:10">
@@ -13266,7 +13257,7 @@
         <v>10.72</v>
       </c>
       <c r="J350" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="351" spans="1:10">
@@ -13295,7 +13286,7 @@
         <v>13.19</v>
       </c>
       <c r="J351" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="352" spans="1:10">
@@ -13324,7 +13315,7 @@
         <v>32.49</v>
       </c>
       <c r="J352" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="353" spans="1:10">
@@ -13353,7 +13344,7 @@
         <v>16.6</v>
       </c>
       <c r="J353" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="354" spans="1:10">
@@ -13382,7 +13373,7 @@
         <v>5.42</v>
       </c>
       <c r="J354" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="355" spans="1:10">
@@ -13411,7 +13402,7 @@
         <v>13.74</v>
       </c>
       <c r="J355" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="356" spans="1:10">
@@ -13440,7 +13431,7 @@
         <v>23</v>
       </c>
       <c r="J356" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="357" spans="1:10">
@@ -13469,7 +13460,7 @@
         <v>23.8</v>
       </c>
       <c r="J357" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="358" spans="1:10">
@@ -13498,7 +13489,7 @@
         <v>10.72</v>
       </c>
       <c r="J358" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="359" spans="1:10">
@@ -13527,7 +13518,7 @@
         <v>44.83</v>
       </c>
       <c r="J359" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="360" spans="1:10">
@@ -13556,7 +13547,7 @@
         <v>27.2</v>
       </c>
       <c r="J360" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="361" spans="1:10">
@@ -13585,7 +13576,7 @@
         <v>10.59</v>
       </c>
       <c r="J361" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="362" spans="1:10">
@@ -13614,7 +13605,7 @@
         <v>10.72</v>
       </c>
       <c r="J362" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="363" spans="1:10">
@@ -13643,7 +13634,7 @@
         <v>44.83</v>
       </c>
       <c r="J363" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="364" spans="1:10">
@@ -13675,7 +13666,7 @@
         <v>206.32</v>
       </c>
       <c r="J364" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="365" spans="1:10">
@@ -13707,7 +13698,7 @@
         <v>48.23</v>
       </c>
       <c r="J365" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -13739,7 +13730,7 @@
         <v>32</v>
       </c>
       <c r="J366" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="367" spans="1:10">
@@ -13771,7 +13762,7 @@
         <v>259.24</v>
       </c>
       <c r="J367" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="368" spans="1:10">
@@ -13794,7 +13785,7 @@
         <v>871</v>
       </c>
       <c r="J368" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="369" spans="1:10">
@@ -13814,7 +13805,7 @@
         <v>871</v>
       </c>
       <c r="J369" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="370" spans="1:10">
@@ -13837,7 +13828,7 @@
         <v>1162.86</v>
       </c>
       <c r="J370" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="371" spans="1:10">
@@ -13869,7 +13860,7 @@
         <v>110.27</v>
       </c>
       <c r="J371" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="372" spans="1:10">
@@ -13898,7 +13889,7 @@
         <v>161.54</v>
       </c>
       <c r="J372" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="373" spans="1:10">
@@ -13915,7 +13906,7 @@
         <v>871</v>
       </c>
       <c r="J373" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="374" spans="1:10">
@@ -13947,7 +13938,7 @@
         <v>48.23</v>
       </c>
       <c r="J374" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="375" spans="1:10">
@@ -13979,7 +13970,7 @@
         <v>588.0599999999999</v>
       </c>
       <c r="J375" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="376" spans="1:10">
@@ -14011,7 +14002,7 @@
         <v>588.0599999999999</v>
       </c>
       <c r="J376" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="377" spans="1:10">
@@ -14043,7 +14034,7 @@
         <v>588.0599999999999</v>
       </c>
       <c r="J377" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="378" spans="1:10">
@@ -14075,7 +14066,7 @@
         <v>588.0599999999999</v>
       </c>
       <c r="J378" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="379" spans="1:10">
@@ -14107,7 +14098,7 @@
         <v>588.0599999999999</v>
       </c>
       <c r="J379" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="380" spans="1:10">
@@ -14139,7 +14130,7 @@
         <v>588.0599999999999</v>
       </c>
       <c r="J380" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="381" spans="1:10">
@@ -14171,7 +14162,7 @@
         <v>540.53</v>
       </c>
       <c r="J381" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="382" spans="1:10">
@@ -14203,7 +14194,7 @@
         <v>540.53</v>
       </c>
       <c r="J382" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="383" spans="1:10">
@@ -14235,7 +14226,7 @@
         <v>540.53</v>
       </c>
       <c r="J383" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="384" spans="1:10">
@@ -14267,7 +14258,7 @@
         <v>540.53</v>
       </c>
       <c r="J384" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="385" spans="1:10">
@@ -14299,7 +14290,7 @@
         <v>260.42</v>
       </c>
       <c r="J385" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="386" spans="1:10">
@@ -14331,7 +14322,7 @@
         <v>260.42</v>
       </c>
       <c r="J386" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="387" spans="1:10">
@@ -14363,7 +14354,7 @@
         <v>260.42</v>
       </c>
       <c r="J387" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="388" spans="1:10">
@@ -14395,7 +14386,7 @@
         <v>260.42</v>
       </c>
       <c r="J388" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="389" spans="1:10">
@@ -14427,7 +14418,7 @@
         <v>260.42</v>
       </c>
       <c r="J389" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="390" spans="1:10">
@@ -14459,7 +14450,7 @@
         <v>260.42</v>
       </c>
       <c r="J390" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="391" spans="1:10">
@@ -14491,7 +14482,7 @@
         <v>260.42</v>
       </c>
       <c r="J391" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="392" spans="1:10">
@@ -14523,7 +14514,7 @@
         <v>260.42</v>
       </c>
       <c r="J392" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="393" spans="1:10">
@@ -14555,7 +14546,7 @@
         <v>745.97</v>
       </c>
       <c r="J393" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="394" spans="1:10">
@@ -14587,7 +14578,7 @@
         <v>745.97</v>
       </c>
       <c r="J394" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="395" spans="1:10">
@@ -14619,7 +14610,7 @@
         <v>745.97</v>
       </c>
       <c r="J395" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="396" spans="1:10">
@@ -14651,7 +14642,7 @@
         <v>745.97</v>
       </c>
       <c r="J396" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="397" spans="1:10">
@@ -14683,7 +14674,7 @@
         <v>745.97</v>
       </c>
       <c r="J397" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="398" spans="1:10">
@@ -14715,7 +14706,7 @@
         <v>745.97</v>
       </c>
       <c r="J398" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="399" spans="1:10">
@@ -14744,7 +14735,7 @@
         <v>108.8</v>
       </c>
       <c r="J399" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="400" spans="1:10">
@@ -14773,7 +14764,7 @@
         <v>9.49</v>
       </c>
       <c r="J400" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="401" spans="1:10">
@@ -14802,7 +14793,7 @@
         <v>1</v>
       </c>
       <c r="J401" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="402" spans="1:10">
@@ -14834,7 +14825,7 @@
         <v>445.47</v>
       </c>
       <c r="J402" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="403" spans="1:10">
@@ -14866,7 +14857,7 @@
         <v>445.47</v>
       </c>
       <c r="J403" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="404" spans="1:10">
@@ -14898,7 +14889,7 @@
         <v>445.47</v>
       </c>
       <c r="J404" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="405" spans="1:10">
@@ -14930,7 +14921,7 @@
         <v>445.47</v>
       </c>
       <c r="J405" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="406" spans="1:10">
@@ -14962,7 +14953,7 @@
         <v>445.47</v>
       </c>
       <c r="J406" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="407" spans="1:10">
@@ -14994,7 +14985,7 @@
         <v>445.47</v>
       </c>
       <c r="J407" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="408" spans="1:10">
@@ -15026,7 +15017,7 @@
         <v>445.47</v>
       </c>
       <c r="J408" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="409" spans="1:10">
@@ -15058,7 +15049,7 @@
         <v>342.23</v>
       </c>
       <c r="J409" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="410" spans="1:10">
@@ -15090,7 +15081,7 @@
         <v>342.23</v>
       </c>
       <c r="J410" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="411" spans="1:10">
@@ -15122,7 +15113,7 @@
         <v>342.23</v>
       </c>
       <c r="J411" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="412" spans="1:10">
@@ -15154,7 +15145,7 @@
         <v>342.23</v>
       </c>
       <c r="J412" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="413" spans="1:10">
@@ -15186,7 +15177,7 @@
         <v>342.23</v>
       </c>
       <c r="J413" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="414" spans="1:10">
@@ -15215,7 +15206,7 @@
         <v>282.6</v>
       </c>
       <c r="J414" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="415" spans="1:10">
@@ -15244,7 +15235,7 @@
         <v>119.04</v>
       </c>
       <c r="J415" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="416" spans="1:10">
@@ -15273,7 +15264,7 @@
         <v>-94.2</v>
       </c>
       <c r="J416" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="417" spans="1:10">
@@ -15305,7 +15296,7 @@
         <v>126.14</v>
       </c>
       <c r="J417" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="418" spans="1:10">
@@ -15337,7 +15328,7 @@
         <v>126.14</v>
       </c>
       <c r="J418" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="419" spans="1:10">
@@ -15369,7 +15360,7 @@
         <v>126.14</v>
       </c>
       <c r="J419" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="420" spans="1:10">
@@ -15412,7 +15403,7 @@
         <v>287.96</v>
       </c>
       <c r="J421" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="422" spans="1:10">
@@ -15432,7 +15423,7 @@
         <v>871</v>
       </c>
       <c r="J422" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="423" spans="1:10">
@@ -15483,7 +15474,7 @@
         <v>44.77</v>
       </c>
       <c r="J425" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="426" spans="1:10">
@@ -15512,7 +15503,7 @@
         <v>59.62</v>
       </c>
       <c r="J426" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="427" spans="1:10">
@@ -15541,7 +15532,7 @@
         <v>273.51</v>
       </c>
       <c r="J427" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="428" spans="1:10">
@@ -15570,7 +15561,7 @@
         <v>38.98</v>
       </c>
       <c r="J428" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="429" spans="1:10">
@@ -15599,7 +15590,7 @@
         <v>45.86</v>
       </c>
       <c r="J429" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="430" spans="1:10">
@@ -15631,7 +15622,7 @@
         <v>502.56</v>
       </c>
       <c r="J430" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="431" spans="1:10">
@@ -15663,7 +15654,7 @@
         <v>502.56</v>
       </c>
       <c r="J431" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="432" spans="1:10">
@@ -15695,7 +15686,7 @@
         <v>502.56</v>
       </c>
       <c r="J432" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="433" spans="1:10">
@@ -15727,7 +15718,7 @@
         <v>502.56</v>
       </c>
       <c r="J433" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="434" spans="1:10">
@@ -15753,7 +15744,7 @@
         <v>413.82</v>
       </c>
       <c r="J434" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="435" spans="1:10">
@@ -15776,13 +15767,13 @@
         <v>10</v>
       </c>
       <c r="H435">
-        <v>82.56</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="I435">
-        <v>200.52</v>
+        <v>236.17</v>
       </c>
       <c r="J435" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="436" spans="1:10">
@@ -15805,13 +15796,13 @@
         <v>10</v>
       </c>
       <c r="H436">
-        <v>87.36</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="I436">
-        <v>200.52</v>
+        <v>236.17</v>
       </c>
       <c r="J436" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="437" spans="1:10">
@@ -15834,13 +15825,13 @@
         <v>10</v>
       </c>
       <c r="H437">
-        <v>30.6</v>
+        <v>32.76</v>
       </c>
       <c r="I437">
-        <v>200.52</v>
+        <v>236.17</v>
       </c>
       <c r="J437" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="438" spans="1:10">
@@ -15872,7 +15863,7 @@
         <v>7.52</v>
       </c>
       <c r="J438" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="439" spans="1:10">
@@ -15904,7 +15895,7 @@
         <v>157.9</v>
       </c>
       <c r="J439" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="440" spans="1:10">
@@ -15936,7 +15927,7 @@
         <v>157.9</v>
       </c>
       <c r="J440" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="441" spans="1:10">
@@ -15968,7 +15959,7 @@
         <v>157.9</v>
       </c>
       <c r="J441" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="442" spans="1:10">
@@ -16000,7 +15991,7 @@
         <v>157.9</v>
       </c>
       <c r="J442" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="443" spans="1:10">
@@ -16040,7 +16031,7 @@
         <v>14.99</v>
       </c>
       <c r="J444" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="445" spans="1:10">
@@ -16060,7 +16051,7 @@
         <v>871</v>
       </c>
       <c r="J445" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="446" spans="1:10">
@@ -16092,7 +16083,7 @@
         <v>183.35</v>
       </c>
       <c r="J446" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="447" spans="1:10">
@@ -16124,7 +16115,7 @@
         <v>126.06</v>
       </c>
       <c r="J447" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="448" spans="1:10">
@@ -16156,7 +16147,7 @@
         <v>126.06</v>
       </c>
       <c r="J448" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="449" spans="1:10">
@@ -16188,7 +16179,7 @@
         <v>126.06</v>
       </c>
       <c r="J449" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="450" spans="1:10">
@@ -16217,7 +16208,7 @@
         <v>49.04</v>
       </c>
       <c r="J450" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="451" spans="1:10">
@@ -16246,7 +16237,7 @@
         <v>23.7</v>
       </c>
       <c r="J451" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="452" spans="1:10">
@@ -16266,7 +16257,7 @@
         <v>871</v>
       </c>
       <c r="J452" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="453" spans="1:10">
@@ -16298,7 +16289,7 @@
         <v>266.75</v>
       </c>
       <c r="J453" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="454" spans="1:10">
@@ -16330,7 +16321,7 @@
         <v>266.75</v>
       </c>
       <c r="J454" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="455" spans="1:10">
@@ -16362,7 +16353,7 @@
         <v>266.75</v>
       </c>
       <c r="J455" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="456" spans="1:10">
@@ -16394,7 +16385,7 @@
         <v>266.75</v>
       </c>
       <c r="J456" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="457" spans="1:10">
@@ -16426,7 +16417,7 @@
         <v>266.75</v>
       </c>
       <c r="J457" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="458" spans="1:10">
@@ -16458,7 +16449,7 @@
         <v>266.75</v>
       </c>
       <c r="J458" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="459" spans="1:10">
@@ -16490,7 +16481,7 @@
         <v>266.75</v>
       </c>
       <c r="J459" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="460" spans="1:10">
@@ -16522,7 +16513,7 @@
         <v>635.09</v>
       </c>
       <c r="J460" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="461" spans="1:10">
@@ -16554,7 +16545,7 @@
         <v>635.09</v>
       </c>
       <c r="J461" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="462" spans="1:10">
@@ -16586,7 +16577,7 @@
         <v>635.09</v>
       </c>
       <c r="J462" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="463" spans="1:10">
@@ -16618,7 +16609,7 @@
         <v>635.09</v>
       </c>
       <c r="J463" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="464" spans="1:10">
@@ -16650,7 +16641,7 @@
         <v>635.09</v>
       </c>
       <c r="J464" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="465" spans="1:10">
@@ -16682,7 +16673,7 @@
         <v>635.09</v>
       </c>
       <c r="J465" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="466" spans="1:10">
@@ -16714,7 +16705,7 @@
         <v>635.09</v>
       </c>
       <c r="J466" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="467" spans="1:10">
@@ -16746,7 +16737,7 @@
         <v>635.09</v>
       </c>
       <c r="J467" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="468" spans="1:10">
@@ -16778,7 +16769,7 @@
         <v>635.09</v>
       </c>
       <c r="J468" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="469" spans="1:10">
@@ -16810,7 +16801,7 @@
         <v>635.09</v>
       </c>
       <c r="J469" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="470" spans="1:10">
@@ -16842,7 +16833,7 @@
         <v>635.09</v>
       </c>
       <c r="J470" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="471" spans="1:10">
@@ -16874,7 +16865,7 @@
         <v>635.09</v>
       </c>
       <c r="J471" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="472" spans="1:10">
@@ -16906,7 +16897,7 @@
         <v>635.09</v>
       </c>
       <c r="J472" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="473" spans="1:10">
@@ -16938,7 +16929,7 @@
         <v>635.09</v>
       </c>
       <c r="J473" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="474" spans="1:10">
@@ -16970,7 +16961,7 @@
         <v>635.09</v>
       </c>
       <c r="J474" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="475" spans="1:10">
@@ -17002,7 +16993,7 @@
         <v>635.09</v>
       </c>
       <c r="J475" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="476" spans="1:10">
@@ -17034,7 +17025,7 @@
         <v>635.09</v>
       </c>
       <c r="J476" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="477" spans="1:10">
@@ -17066,7 +17057,7 @@
         <v>635.09</v>
       </c>
       <c r="J477" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="478" spans="1:10">
@@ -17098,7 +17089,7 @@
         <v>635.09</v>
       </c>
       <c r="J478" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="479" spans="1:10">
@@ -17127,7 +17118,7 @@
         <v>4.8</v>
       </c>
       <c r="J479" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="480" spans="1:10">
@@ -17156,7 +17147,7 @@
         <v>5.22</v>
       </c>
       <c r="J480" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="481" spans="1:10">
@@ -17185,7 +17176,7 @@
         <v>79.2</v>
       </c>
       <c r="J481" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="482" spans="1:10">
@@ -17217,7 +17208,7 @@
         <v>356.77</v>
       </c>
       <c r="J482" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="483" spans="1:10">
@@ -17249,7 +17240,7 @@
         <v>356.77</v>
       </c>
       <c r="J483" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="484" spans="1:10">
@@ -17281,7 +17272,7 @@
         <v>356.77</v>
       </c>
       <c r="J484" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="485" spans="1:10">
@@ -17313,7 +17304,7 @@
         <v>356.77</v>
       </c>
       <c r="J485" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="486" spans="1:10">
@@ -17345,7 +17336,7 @@
         <v>356.77</v>
       </c>
       <c r="J486" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="487" spans="1:10">
@@ -17377,7 +17368,7 @@
         <v>356.77</v>
       </c>
       <c r="J487" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="488" spans="1:10">
@@ -17406,10 +17397,10 @@
         <v>25.2</v>
       </c>
       <c r="I488">
-        <v>5.06</v>
+        <v>81.38</v>
       </c>
       <c r="J488" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="489" spans="1:10">
@@ -17438,10 +17429,10 @@
         <v>18.9</v>
       </c>
       <c r="I489">
-        <v>5.06</v>
+        <v>81.38</v>
       </c>
       <c r="J489" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="490" spans="1:10">
@@ -17470,10 +17461,10 @@
         <v>29.88</v>
       </c>
       <c r="I490">
-        <v>5.06</v>
+        <v>81.38</v>
       </c>
       <c r="J490" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="491" spans="1:10">
@@ -17490,7 +17481,7 @@
         <v>871</v>
       </c>
       <c r="J491" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="492" spans="1:10">
@@ -17519,7 +17510,7 @@
         <v>10</v>
       </c>
       <c r="J492" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="493" spans="1:10">
@@ -17548,7 +17539,7 @@
         <v>39.86</v>
       </c>
       <c r="J493" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="494" spans="1:10">
@@ -17577,7 +17568,7 @@
         <v>260.05</v>
       </c>
       <c r="J494" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="495" spans="1:10">
@@ -17606,7 +17597,7 @@
         <v>25.93</v>
       </c>
       <c r="J495" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="496" spans="1:10">
@@ -17635,7 +17626,7 @@
         <v>51.87</v>
       </c>
       <c r="J496" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="497" spans="1:10">
@@ -17689,7 +17680,7 @@
         <v>175.95</v>
       </c>
       <c r="J499" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="500" spans="1:10">
@@ -17718,7 +17709,7 @@
         <v>282.6</v>
       </c>
       <c r="J500" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="501" spans="1:10">
@@ -17747,7 +17738,7 @@
         <v>119.04</v>
       </c>
       <c r="J501" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="502" spans="1:10">
@@ -17776,7 +17767,7 @@
         <v>-94.2</v>
       </c>
       <c r="J502" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="503" spans="1:10">
@@ -17805,7 +17796,7 @@
         <v>78.75</v>
       </c>
       <c r="J503" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="504" spans="1:10">
@@ -17834,7 +17825,7 @@
         <v>49.5</v>
       </c>
       <c r="J504" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="505" spans="1:10">
@@ -17866,7 +17857,7 @@
         <v>183.53</v>
       </c>
       <c r="J505" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="506" spans="1:10">
@@ -17898,7 +17889,7 @@
         <v>183.53</v>
       </c>
       <c r="J506" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="507" spans="1:10">
@@ -17930,7 +17921,7 @@
         <v>2.2</v>
       </c>
       <c r="J507" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="508" spans="1:10">
@@ -17947,7 +17938,7 @@
         <v>871</v>
       </c>
       <c r="J508" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="509" spans="1:10">
@@ -17979,7 +17970,7 @@
         <v>311.82</v>
       </c>
       <c r="J509" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="510" spans="1:10">
@@ -18011,7 +18002,7 @@
         <v>311.82</v>
       </c>
       <c r="J510" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="511" spans="1:10">
@@ -18043,7 +18034,7 @@
         <v>303.44</v>
       </c>
       <c r="J511" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="512" spans="1:10">
@@ -18075,7 +18066,7 @@
         <v>303.44</v>
       </c>
       <c r="J512" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="513" spans="1:10">
@@ -18107,7 +18098,7 @@
         <v>303.44</v>
       </c>
       <c r="J513" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="514" spans="1:10">
@@ -18139,7 +18130,7 @@
         <v>303.44</v>
       </c>
       <c r="J514" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="515" spans="1:10">
@@ -18171,7 +18162,7 @@
         <v>303.44</v>
       </c>
       <c r="J515" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="516" spans="1:10">
@@ -18194,7 +18185,7 @@
         <v>871</v>
       </c>
       <c r="J516" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="517" spans="1:10">
@@ -18223,7 +18214,7 @@
         <v>96</v>
       </c>
       <c r="J517" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="518" spans="1:10">
@@ -18252,7 +18243,7 @@
         <v>51.77</v>
       </c>
       <c r="J518" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="519" spans="1:10">
@@ -18281,7 +18272,7 @@
         <v>51.41</v>
       </c>
       <c r="J519" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="520" spans="1:10">
@@ -18310,7 +18301,7 @@
         <v>96</v>
       </c>
       <c r="J520" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="521" spans="1:10">
@@ -18339,7 +18330,7 @@
         <v>12.03</v>
       </c>
       <c r="J521" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="522" spans="1:10">
@@ -18368,7 +18359,7 @@
         <v>144</v>
       </c>
       <c r="J522" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="523" spans="1:10">
@@ -18397,7 +18388,7 @@
         <v>51.46</v>
       </c>
       <c r="J523" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="524" spans="1:10">
@@ -18426,7 +18417,7 @@
         <v>54.26</v>
       </c>
       <c r="J524" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="525" spans="1:10">
@@ -18455,7 +18446,7 @@
         <v>192</v>
       </c>
       <c r="J525" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="526" spans="1:10">
@@ -18484,7 +18475,7 @@
         <v>9.94</v>
       </c>
       <c r="J526" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="527" spans="1:10">
@@ -18513,7 +18504,7 @@
         <v>50.53</v>
       </c>
       <c r="J527" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="528" spans="1:10">
@@ -18542,7 +18533,7 @@
         <v>168</v>
       </c>
       <c r="J528" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="529" spans="1:10">
@@ -18571,7 +18562,7 @@
         <v>12.03</v>
       </c>
       <c r="J529" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="530" spans="1:10">
@@ -18603,7 +18594,7 @@
         <v>410.15</v>
       </c>
       <c r="J530" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="531" spans="1:10">
@@ -18635,7 +18626,7 @@
         <v>410.15</v>
       </c>
       <c r="J531" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="532" spans="1:10">
@@ -18667,7 +18658,7 @@
         <v>410.15</v>
       </c>
       <c r="J532" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="533" spans="1:10">
@@ -18699,7 +18690,7 @@
         <v>410.15</v>
       </c>
       <c r="J533" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="534" spans="1:10">
@@ -18731,7 +18722,7 @@
         <v>410.15</v>
       </c>
       <c r="J534" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="535" spans="1:10">
@@ -18763,7 +18754,7 @@
         <v>410.15</v>
       </c>
       <c r="J535" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="536" spans="1:10">
@@ -18795,7 +18786,7 @@
         <v>410.15</v>
       </c>
       <c r="J536" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="537" spans="1:10">
@@ -18827,7 +18818,7 @@
         <v>410.15</v>
       </c>
       <c r="J537" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="538" spans="1:10">
@@ -18859,7 +18850,7 @@
         <v>410.15</v>
       </c>
       <c r="J538" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="539" spans="1:10">
@@ -18891,7 +18882,7 @@
         <v>174.24</v>
       </c>
       <c r="J539" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="540" spans="1:10">
@@ -18942,7 +18933,7 @@
         <v>24.19</v>
       </c>
       <c r="J542" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="543" spans="1:10">
@@ -18974,7 +18965,7 @@
         <v>63.25</v>
       </c>
       <c r="J543" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="544" spans="1:10">
@@ -19003,7 +18994,7 @@
         <v>21.6</v>
       </c>
       <c r="J544" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="545" spans="1:10">
@@ -19032,7 +19023,7 @@
         <v>16.5</v>
       </c>
       <c r="J545" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="546" spans="1:10">
@@ -19061,7 +19052,7 @@
         <v>12.7</v>
       </c>
       <c r="J546" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="547" spans="1:10">
@@ -19090,7 +19081,7 @@
         <v>21.8</v>
       </c>
       <c r="J547" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="548" spans="1:10">
@@ -19119,7 +19110,7 @@
         <v>25.4</v>
       </c>
       <c r="J548" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="549" spans="1:10">
@@ -19148,7 +19139,7 @@
         <v>16.4</v>
       </c>
       <c r="J549" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="550" spans="1:10">
@@ -19177,7 +19168,7 @@
         <v>21.6</v>
       </c>
       <c r="J550" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="551" spans="1:10">
@@ -19206,7 +19197,7 @@
         <v>6.75</v>
       </c>
       <c r="J551" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="552" spans="1:10">
@@ -19235,7 +19226,7 @@
         <v>18</v>
       </c>
       <c r="J552" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="553" spans="1:10">
@@ -19264,7 +19255,7 @@
         <v>21.6</v>
       </c>
       <c r="J553" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="554" spans="1:10">
@@ -19293,7 +19284,7 @@
         <v>16.5</v>
       </c>
       <c r="J554" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="555" spans="1:10">
@@ -19322,7 +19313,7 @@
         <v>23.5</v>
       </c>
       <c r="J555" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="556" spans="1:10">
@@ -19351,7 +19342,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J556" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="557" spans="1:10">
@@ -19380,7 +19371,7 @@
         <v>22.6</v>
       </c>
       <c r="J557" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="558" spans="1:10">
@@ -19409,7 +19400,7 @@
         <v>13.9</v>
       </c>
       <c r="J558" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="559" spans="1:10">
@@ -19438,7 +19429,7 @@
         <v>35.25</v>
       </c>
       <c r="J559" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="560" spans="1:10">
@@ -19467,7 +19458,7 @@
         <v>25.4</v>
       </c>
       <c r="J560" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="561" spans="1:10">
@@ -19496,7 +19487,7 @@
         <v>10.9</v>
       </c>
       <c r="J561" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="562" spans="1:10">
@@ -19525,7 +19516,7 @@
         <v>10.2</v>
       </c>
       <c r="J562" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="563" spans="1:10">
@@ -19554,7 +19545,7 @@
         <v>13.9</v>
       </c>
       <c r="J563" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="564" spans="1:10">
@@ -19583,7 +19574,7 @@
         <v>18</v>
       </c>
       <c r="J564" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="565" spans="1:10">
@@ -19612,7 +19603,7 @@
         <v>8.25</v>
       </c>
       <c r="J565" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="566" spans="1:10">
@@ -19641,7 +19632,7 @@
         <v>21.9</v>
       </c>
       <c r="J566" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="567" spans="1:10">
@@ -19670,7 +19661,7 @@
         <v>16.5</v>
       </c>
       <c r="J567" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="568" spans="1:10">
@@ -19699,7 +19690,7 @@
         <v>35.7</v>
       </c>
       <c r="J568" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="569" spans="1:10">
@@ -19728,7 +19719,7 @@
         <v>14.95</v>
       </c>
       <c r="J569" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="570" spans="1:10">
@@ -19757,7 +19748,7 @@
         <v>18</v>
       </c>
       <c r="J570" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="571" spans="1:10">
@@ -19786,7 +19777,7 @@
         <v>43.8</v>
       </c>
       <c r="J571" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="572" spans="1:10">
@@ -19815,7 +19806,7 @@
         <v>16.5</v>
       </c>
       <c r="J572" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="573" spans="1:10">
@@ -19844,7 +19835,7 @@
         <v>32.7</v>
       </c>
       <c r="J573" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="574" spans="1:10">
@@ -19873,7 +19864,7 @@
         <v>41.7</v>
       </c>
       <c r="J574" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="575" spans="1:10">
@@ -19902,7 +19893,7 @@
         <v>16.4</v>
       </c>
       <c r="J575" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="576" spans="1:10">
@@ -19931,7 +19922,7 @@
         <v>22.6</v>
       </c>
       <c r="J576" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="577" spans="1:10">
@@ -19960,7 +19951,7 @@
         <v>9.949999999999999</v>
       </c>
       <c r="J577" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="578" spans="1:10">
@@ -19989,7 +19980,7 @@
         <v>35.5</v>
       </c>
       <c r="J578" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="579" spans="1:10">
@@ -20018,7 +20009,7 @@
         <v>75.59999999999999</v>
       </c>
       <c r="J579" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="580" spans="1:10">
@@ -20047,7 +20038,7 @@
         <v>28.2</v>
       </c>
       <c r="J580" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="581" spans="1:10">
@@ -20076,7 +20067,7 @@
         <v>14.1</v>
       </c>
       <c r="J581" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="582" spans="1:10">
@@ -20105,7 +20096,7 @@
         <v>142.5</v>
       </c>
       <c r="J582" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="583" spans="1:10">
@@ -20134,7 +20125,7 @@
         <v>77.94</v>
       </c>
       <c r="J583" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="584" spans="1:10">
@@ -20163,7 +20154,7 @@
         <v>41.4</v>
       </c>
       <c r="J584" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="585" spans="1:10">
@@ -20192,7 +20183,7 @@
         <v>82.8</v>
       </c>
       <c r="J585" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="586" spans="1:10">
@@ -20221,7 +20212,7 @@
         <v>54.9</v>
       </c>
       <c r="J586" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="587" spans="1:10">
@@ -20250,7 +20241,7 @@
         <v>36.6</v>
       </c>
       <c r="J587" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="588" spans="1:10">
@@ -20279,7 +20270,7 @@
         <v>13.01</v>
       </c>
       <c r="J588" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="589" spans="1:10">
@@ -20308,7 +20299,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="J589" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="590" spans="1:10">
@@ -20337,7 +20328,7 @@
         <v>49</v>
       </c>
       <c r="J590" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="591" spans="1:10">
@@ -20366,7 +20357,7 @@
         <v>42</v>
       </c>
       <c r="J591" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="592" spans="1:10">
@@ -20395,7 +20386,7 @@
         <v>24.5</v>
       </c>
       <c r="J592" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="593" spans="1:10">
@@ -20424,7 +20415,7 @@
         <v>34</v>
       </c>
       <c r="J593" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="594" spans="1:10">
@@ -20453,7 +20444,7 @@
         <v>7.06</v>
       </c>
       <c r="J594" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="595" spans="1:10">
@@ -20482,7 +20473,7 @@
         <v>10.72</v>
       </c>
       <c r="J595" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="596" spans="1:10">
@@ -20511,7 +20502,7 @@
         <v>14.94</v>
       </c>
       <c r="J596" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="597" spans="1:10">
@@ -20540,7 +20531,7 @@
         <v>16.23</v>
       </c>
       <c r="J597" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="598" spans="1:10">
@@ -20569,7 +20560,7 @@
         <v>34</v>
       </c>
       <c r="J598" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="599" spans="1:10">
@@ -20598,7 +20589,7 @@
         <v>10.72</v>
       </c>
       <c r="J599" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="600" spans="1:10">
@@ -20627,7 +20618,7 @@
         <v>14.94</v>
       </c>
       <c r="J600" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="601" spans="1:10">
@@ -20656,7 +20647,7 @@
         <v>21.64</v>
       </c>
       <c r="J601" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="602" spans="1:10">
@@ -20685,7 +20676,7 @@
         <v>34</v>
       </c>
       <c r="J602" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="603" spans="1:10">
@@ -20714,7 +20705,7 @@
         <v>10.72</v>
       </c>
       <c r="J603" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="604" spans="1:10">
@@ -20743,7 +20734,7 @@
         <v>14.94</v>
       </c>
       <c r="J604" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="605" spans="1:10">
@@ -20772,7 +20763,7 @@
         <v>21.64</v>
       </c>
       <c r="J605" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="606" spans="1:10">
@@ -20801,7 +20792,7 @@
         <v>277.49</v>
       </c>
       <c r="J606" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="607" spans="1:10">
@@ -20830,7 +20821,7 @@
         <v>42.84</v>
       </c>
       <c r="J607" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="608" spans="1:10">
@@ -20859,7 +20850,7 @@
         <v>24.86</v>
       </c>
       <c r="J608" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="609" spans="1:10">
@@ -20891,7 +20882,7 @@
         <v>541.08</v>
       </c>
       <c r="J609" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="610" spans="1:10">
@@ -20923,7 +20914,7 @@
         <v>541.08</v>
       </c>
       <c r="J610" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="611" spans="1:10">
@@ -20955,7 +20946,7 @@
         <v>541.08</v>
       </c>
       <c r="J611" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="612" spans="1:10">
@@ -20984,7 +20975,7 @@
         <v>510</v>
       </c>
       <c r="J612" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="613" spans="1:10">
@@ -21013,7 +21004,7 @@
         <v>510</v>
       </c>
       <c r="J613" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="614" spans="1:10">
@@ -21045,7 +21036,7 @@
         <v>28.32</v>
       </c>
       <c r="J614" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="615" spans="1:10">
@@ -21077,7 +21068,7 @@
         <v>37.71</v>
       </c>
       <c r="J615" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="616" spans="1:10">
@@ -21109,7 +21100,7 @@
         <v>37.71</v>
       </c>
       <c r="J616" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="617" spans="1:10">
@@ -21135,7 +21126,7 @@
         <v>592.33</v>
       </c>
       <c r="J617" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="618" spans="1:10">
@@ -21167,7 +21158,7 @@
         <v>9.31</v>
       </c>
       <c r="J618" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="619" spans="1:10">
@@ -21199,7 +21190,7 @@
         <v>9.31</v>
       </c>
       <c r="J619" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="620" spans="1:10">
@@ -21231,7 +21222,7 @@
         <v>9.31</v>
       </c>
       <c r="J620" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="621" spans="1:10">
@@ -21263,7 +21254,7 @@
         <v>4.83</v>
       </c>
       <c r="J621" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="622" spans="1:10">
@@ -21295,7 +21286,7 @@
         <v>4.83</v>
       </c>
       <c r="J622" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="623" spans="1:10">
@@ -21327,7 +21318,7 @@
         <v>29.27</v>
       </c>
       <c r="J623" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="624" spans="1:10">
@@ -21359,7 +21350,7 @@
         <v>29.27</v>
       </c>
       <c r="J624" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="625" spans="1:10">
@@ -21391,7 +21382,7 @@
         <v>42.56</v>
       </c>
       <c r="J625" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="626" spans="1:10">
@@ -21423,7 +21414,7 @@
         <v>42.56</v>
       </c>
       <c r="J626" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="627" spans="1:10">
@@ -21455,7 +21446,7 @@
         <v>16.42</v>
       </c>
       <c r="J627" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="628" spans="1:10">
@@ -21487,7 +21478,7 @@
         <v>16.42</v>
       </c>
       <c r="J628" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="629" spans="1:10">
@@ -21519,7 +21510,7 @@
         <v>16.42</v>
       </c>
       <c r="J629" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="630" spans="1:10">
@@ -21548,7 +21539,7 @@
         <v>510</v>
       </c>
       <c r="J630" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="631" spans="1:10">
@@ -21580,7 +21571,7 @@
         <v>49.31</v>
       </c>
       <c r="J631" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="632" spans="1:10">
@@ -21612,7 +21603,7 @@
         <v>49.31</v>
       </c>
       <c r="J632" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="633" spans="1:10">
@@ -21644,7 +21635,7 @@
         <v>49.31</v>
       </c>
       <c r="J633" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="634" spans="1:10">
@@ -21673,7 +21664,7 @@
         <v>510</v>
       </c>
       <c r="J634" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="635" spans="1:10">
@@ -21705,7 +21696,7 @@
         <v>22.28</v>
       </c>
       <c r="J635" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="636" spans="1:10">
@@ -21737,7 +21728,7 @@
         <v>20.83</v>
       </c>
       <c r="J636" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="637" spans="1:10">
@@ -21769,7 +21760,7 @@
         <v>23.93</v>
       </c>
       <c r="J637" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="638" spans="1:10">
@@ -21801,7 +21792,7 @@
         <v>23.93</v>
       </c>
       <c r="J638" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="639" spans="1:10">
@@ -21833,7 +21824,7 @@
         <v>9.26</v>
       </c>
       <c r="J639" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="640" spans="1:10">
@@ -21865,7 +21856,7 @@
         <v>9.26</v>
       </c>
       <c r="J640" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="641" spans="1:10">
@@ -21897,7 +21888,7 @@
         <v>9.26</v>
       </c>
       <c r="J641" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="642" spans="1:10">
@@ -21926,7 +21917,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="J642" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="643" spans="1:10">
@@ -21955,7 +21946,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="J643" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="644" spans="1:10">
@@ -21984,7 +21975,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="J644" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="645" spans="1:10">
@@ -22013,7 +22004,7 @@
         <v>17.96</v>
       </c>
       <c r="J645" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="646" spans="1:10">
@@ -22042,7 +22033,7 @@
         <v>17.96</v>
       </c>
       <c r="J646" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="647" spans="1:10">
@@ -22074,7 +22065,7 @@
         <v>6.48</v>
       </c>
       <c r="J647" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="648" spans="1:10">
@@ -22106,7 +22097,7 @@
         <v>6.48</v>
       </c>
       <c r="J648" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="649" spans="1:10">
@@ -22138,7 +22129,7 @@
         <v>30.36</v>
       </c>
       <c r="J649" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="650" spans="1:10">
@@ -22170,7 +22161,7 @@
         <v>30.36</v>
       </c>
       <c r="J650" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="651" spans="1:10">
@@ -22202,7 +22193,7 @@
         <v>30.36</v>
       </c>
       <c r="J651" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="652" spans="1:10">
@@ -22231,7 +22222,7 @@
         <v>10.22</v>
       </c>
       <c r="J652" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="653" spans="1:10">
@@ -22263,7 +22254,7 @@
         <v>43.96</v>
       </c>
       <c r="J653" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="654" spans="1:10">
@@ -22295,7 +22286,7 @@
         <v>43.96</v>
       </c>
       <c r="J654" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="655" spans="1:10">
@@ -22327,7 +22318,7 @@
         <v>43.96</v>
       </c>
       <c r="J655" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="656" spans="1:10">
@@ -22359,7 +22350,7 @@
         <v>46.37</v>
       </c>
       <c r="J656" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="657" spans="1:10">
@@ -22391,7 +22382,7 @@
         <v>46.37</v>
       </c>
       <c r="J657" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="658" spans="1:10">
@@ -22423,7 +22414,7 @@
         <v>46.37</v>
       </c>
       <c r="J658" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="659" spans="1:10">
@@ -22452,7 +22443,7 @@
         <v>510</v>
       </c>
       <c r="J659" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="660" spans="1:10">
@@ -22484,7 +22475,7 @@
         <v>16.38</v>
       </c>
       <c r="J660" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="661" spans="1:10">
@@ -22516,7 +22507,7 @@
         <v>16.38</v>
       </c>
       <c r="J661" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="662" spans="1:10">
@@ -22548,7 +22539,7 @@
         <v>16.38</v>
       </c>
       <c r="J662" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="663" spans="1:10">
@@ -22577,7 +22568,7 @@
         <v>510</v>
       </c>
       <c r="J663" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="664" spans="1:10">
@@ -22609,7 +22600,7 @@
         <v>13.19</v>
       </c>
       <c r="J664" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="665" spans="1:10">
@@ -22641,7 +22632,7 @@
         <v>13.19</v>
       </c>
       <c r="J665" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="666" spans="1:10">
@@ -22673,7 +22664,7 @@
         <v>35.89</v>
       </c>
       <c r="J666" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="667" spans="1:10">
@@ -22705,7 +22696,7 @@
         <v>35.89</v>
       </c>
       <c r="J667" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="668" spans="1:10">
@@ -22737,7 +22728,7 @@
         <v>15.46</v>
       </c>
       <c r="J668" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="669" spans="1:10">
@@ -22769,7 +22760,7 @@
         <v>15.46</v>
       </c>
       <c r="J669" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="670" spans="1:10">
@@ -22801,7 +22792,7 @@
         <v>15.46</v>
       </c>
       <c r="J670" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="671" spans="1:10">
@@ -22833,7 +22824,7 @@
         <v>31.87</v>
       </c>
       <c r="J671" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="672" spans="1:10">
@@ -22865,7 +22856,7 @@
         <v>28.11</v>
       </c>
       <c r="J672" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="673" spans="1:10">
@@ -22897,7 +22888,7 @@
         <v>28.11</v>
       </c>
       <c r="J673" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="674" spans="1:10">
@@ -22929,7 +22920,7 @@
         <v>10.25</v>
       </c>
       <c r="J674" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="675" spans="1:10">
@@ -22961,7 +22952,7 @@
         <v>10.25</v>
       </c>
       <c r="J675" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="676" spans="1:10">
@@ -22993,7 +22984,7 @@
         <v>38.52</v>
       </c>
       <c r="J676" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="677" spans="1:10">
@@ -23025,7 +23016,7 @@
         <v>38.52</v>
       </c>
       <c r="J677" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="678" spans="1:10">
@@ -23057,7 +23048,7 @@
         <v>16.14</v>
       </c>
       <c r="J678" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="679" spans="1:10">
@@ -23089,7 +23080,7 @@
         <v>16.14</v>
       </c>
       <c r="J679" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="680" spans="1:10">
@@ -23118,7 +23109,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="J680" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="681" spans="1:10">
@@ -23147,7 +23138,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="J681" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="682" spans="1:10">
@@ -23176,7 +23167,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="J682" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="683" spans="1:10">
@@ -23205,7 +23196,7 @@
         <v>51.01</v>
       </c>
       <c r="J683" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="684" spans="1:10">
@@ -23234,7 +23225,7 @@
         <v>16.97</v>
       </c>
       <c r="J684" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="685" spans="1:10">
@@ -23266,7 +23257,7 @@
         <v>796.87</v>
       </c>
       <c r="J685" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="686" spans="1:10">
@@ -23298,7 +23289,7 @@
         <v>796.87</v>
       </c>
       <c r="J686" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="687" spans="1:10">
@@ -23330,7 +23321,7 @@
         <v>796.87</v>
       </c>
       <c r="J687" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="688" spans="1:10">
@@ -23362,7 +23353,7 @@
         <v>796.87</v>
       </c>
       <c r="J688" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="689" spans="1:10">
@@ -23394,7 +23385,7 @@
         <v>796.87</v>
       </c>
       <c r="J689" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="690" spans="1:10">
@@ -23426,7 +23417,7 @@
         <v>796.87</v>
       </c>
       <c r="J690" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="691" spans="1:10">
@@ -23458,7 +23449,7 @@
         <v>107.84</v>
       </c>
       <c r="J691" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="692" spans="1:10">
@@ -23490,7 +23481,7 @@
         <v>107.84</v>
       </c>
       <c r="J692" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="693" spans="1:10">
@@ -23519,7 +23510,7 @@
         <v>54.4</v>
       </c>
       <c r="J693" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="694" spans="1:10">
@@ -23548,7 +23539,7 @@
         <v>27.74</v>
       </c>
       <c r="J694" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="695" spans="1:10">
@@ -23577,7 +23568,7 @@
         <v>1</v>
       </c>
       <c r="J695" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="696" spans="1:10">
@@ -23606,7 +23597,7 @@
         <v>16.45</v>
       </c>
       <c r="J696" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="697" spans="1:10">
@@ -23638,7 +23629,7 @@
         <v>96.59</v>
       </c>
       <c r="J697" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="698" spans="1:10">
@@ -23670,7 +23661,7 @@
         <v>96.59</v>
       </c>
       <c r="J698" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="699" spans="1:10">
@@ -23702,7 +23693,7 @@
         <v>96.59</v>
       </c>
       <c r="J699" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="700" spans="1:10">
@@ -23734,7 +23725,7 @@
         <v>700.46</v>
       </c>
       <c r="J700" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="701" spans="1:10">
@@ -23766,7 +23757,7 @@
         <v>700.46</v>
       </c>
       <c r="J701" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="702" spans="1:10">
@@ -23798,7 +23789,7 @@
         <v>700.46</v>
       </c>
       <c r="J702" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="703" spans="1:10">
@@ -23830,7 +23821,7 @@
         <v>700.46</v>
       </c>
       <c r="J703" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="704" spans="1:10">
@@ -23862,7 +23853,7 @@
         <v>700.46</v>
       </c>
       <c r="J704" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="705" spans="1:10">
@@ -23894,7 +23885,7 @@
         <v>700.46</v>
       </c>
       <c r="J705" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="706" spans="1:10">
@@ -23926,7 +23917,7 @@
         <v>207.22</v>
       </c>
       <c r="J706" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="707" spans="1:10">
@@ -23958,7 +23949,7 @@
         <v>207.22</v>
       </c>
       <c r="J707" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="708" spans="1:10">
@@ -23990,7 +23981,7 @@
         <v>207.22</v>
       </c>
       <c r="J708" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="709" spans="1:10">
@@ -24022,7 +24013,7 @@
         <v>207.22</v>
       </c>
       <c r="J709" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="710" spans="1:10">
@@ -24054,7 +24045,7 @@
         <v>660.28</v>
       </c>
       <c r="J710" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="711" spans="1:10">
@@ -24086,7 +24077,7 @@
         <v>660.28</v>
       </c>
       <c r="J711" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="712" spans="1:10">
@@ -24118,7 +24109,7 @@
         <v>660.28</v>
       </c>
       <c r="J712" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="713" spans="1:10">
@@ -24150,7 +24141,7 @@
         <v>660.28</v>
       </c>
       <c r="J713" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="714" spans="1:10">
@@ -24182,7 +24173,7 @@
         <v>660.28</v>
       </c>
       <c r="J714" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="715" spans="1:10">
@@ -24211,7 +24202,7 @@
         <v>272</v>
       </c>
       <c r="J715" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="716" spans="1:10">
@@ -24240,7 +24231,7 @@
         <v>88.12</v>
       </c>
       <c r="J716" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="717" spans="1:10">
@@ -24269,7 +24260,7 @@
         <v>14.99</v>
       </c>
       <c r="J717" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="718" spans="1:10">
@@ -24298,7 +24289,7 @@
         <v>45.78</v>
       </c>
       <c r="J718" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="719" spans="1:10">
@@ -24327,7 +24318,7 @@
         <v>1</v>
       </c>
       <c r="J719" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="720" spans="1:10">
@@ -24359,7 +24350,7 @@
         <v>313.91</v>
       </c>
       <c r="J720" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="721" spans="1:10">
@@ -24391,7 +24382,7 @@
         <v>313.91</v>
       </c>
       <c r="J721" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="722" spans="1:10">
@@ -24423,7 +24414,7 @@
         <v>313.91</v>
       </c>
       <c r="J722" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="723" spans="1:10">
@@ -24455,7 +24446,7 @@
         <v>313.91</v>
       </c>
       <c r="J723" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="724" spans="1:10">
@@ -24487,7 +24478,7 @@
         <v>313.91</v>
       </c>
       <c r="J724" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="725" spans="1:10">
@@ -24519,7 +24510,7 @@
         <v>313.91</v>
       </c>
       <c r="J725" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="726" spans="1:10">
@@ -24551,7 +24542,7 @@
         <v>566.76</v>
       </c>
       <c r="J726" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="727" spans="1:10">
@@ -24583,7 +24574,7 @@
         <v>566.76</v>
       </c>
       <c r="J727" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="728" spans="1:10">
@@ -24615,7 +24606,7 @@
         <v>566.76</v>
       </c>
       <c r="J728" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="729" spans="1:10">
@@ -24647,7 +24638,7 @@
         <v>566.76</v>
       </c>
       <c r="J729" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="730" spans="1:10">
@@ -24679,7 +24670,7 @@
         <v>566.76</v>
       </c>
       <c r="J730" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="731" spans="1:10">
@@ -24711,7 +24702,7 @@
         <v>730.14</v>
       </c>
       <c r="J731" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="732" spans="1:10">
@@ -24743,7 +24734,7 @@
         <v>730.14</v>
       </c>
       <c r="J732" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="733" spans="1:10">
@@ -24775,7 +24766,7 @@
         <v>730.14</v>
       </c>
       <c r="J733" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="734" spans="1:10">
@@ -24807,7 +24798,7 @@
         <v>730.14</v>
       </c>
       <c r="J734" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="735" spans="1:10">
@@ -24839,7 +24830,7 @@
         <v>730.14</v>
       </c>
       <c r="J735" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="736" spans="1:10">
@@ -24871,7 +24862,7 @@
         <v>730.14</v>
       </c>
       <c r="J736" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="737" spans="1:10">
@@ -24900,7 +24891,7 @@
         <v>49.64</v>
       </c>
       <c r="J737" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="738" spans="1:10">
@@ -24932,7 +24923,7 @@
         <v>88.90000000000001</v>
       </c>
       <c r="J738" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="739" spans="1:10">
@@ -24961,7 +24952,7 @@
         <v>192.6</v>
       </c>
       <c r="J739" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="740" spans="1:10">
@@ -24990,7 +24981,7 @@
         <v>128.4</v>
       </c>
       <c r="J740" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="741" spans="1:10">
@@ -25013,7 +25004,7 @@
         <v>20</v>
       </c>
       <c r="J741" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="742" spans="1:10">
@@ -25045,7 +25036,7 @@
         <v>75.06999999999999</v>
       </c>
       <c r="J742" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="743" spans="1:10">
@@ -25077,7 +25068,7 @@
         <v>81.62</v>
       </c>
       <c r="J743" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="744" spans="1:10">
@@ -25109,7 +25100,7 @@
         <v>81.62</v>
       </c>
       <c r="J744" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="745" spans="1:10">
@@ -25141,7 +25132,7 @@
         <v>81.62</v>
       </c>
       <c r="J745" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="746" spans="1:10">
@@ -25170,7 +25161,7 @@
         <v>10</v>
       </c>
       <c r="J746" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="747" spans="1:10">
@@ -25199,7 +25190,7 @@
         <v>284.17</v>
       </c>
       <c r="J747" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="748" spans="1:10">
@@ -25228,7 +25219,7 @@
         <v>206.67</v>
       </c>
       <c r="J748" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="749" spans="1:10">
@@ -25257,7 +25248,7 @@
         <v>77.5</v>
       </c>
       <c r="J749" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="750" spans="1:10">
@@ -25286,7 +25277,7 @@
         <v>129.17</v>
       </c>
       <c r="J750" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="751" spans="1:10">
@@ -25315,7 +25306,7 @@
         <v>25.83</v>
       </c>
       <c r="J751" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="752" spans="1:10">
@@ -25344,7 +25335,7 @@
         <v>25.83</v>
       </c>
       <c r="J752" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="753" spans="1:10">
@@ -25373,7 +25364,7 @@
         <v>25.83</v>
       </c>
       <c r="J753" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="754" spans="1:10">
@@ -25396,7 +25387,7 @@
         <v>204.73</v>
       </c>
       <c r="J754" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="755" spans="1:10">
@@ -25425,7 +25416,7 @@
         <v>130.5</v>
       </c>
       <c r="J755" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="756" spans="1:10">
@@ -25454,7 +25445,7 @@
         <v>130.5</v>
       </c>
       <c r="J756" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="757" spans="1:10">
@@ -25483,7 +25474,7 @@
         <v>39.86</v>
       </c>
       <c r="J757" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="758" spans="1:10">
@@ -25506,7 +25497,7 @@
         <v>20</v>
       </c>
       <c r="J758" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="759" spans="1:10">
@@ -25535,7 +25526,7 @@
         <v>70</v>
       </c>
       <c r="J759" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="760" spans="1:10">
@@ -25564,7 +25555,7 @@
         <v>120</v>
       </c>
       <c r="J760" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="761" spans="1:10">
@@ -25587,7 +25578,7 @@
         <v>20</v>
       </c>
       <c r="J761" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="762" spans="1:10">
@@ -25607,7 +25598,7 @@
         <v>871</v>
       </c>
       <c r="J762" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="763" spans="1:10">
@@ -25639,7 +25630,7 @@
         <v>15.46</v>
       </c>
       <c r="J763" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="764" spans="1:10">
@@ -25671,7 +25662,7 @@
         <v>15.46</v>
       </c>
       <c r="J764" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="765" spans="1:10">
@@ -25703,7 +25694,7 @@
         <v>15.46</v>
       </c>
       <c r="J765" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="766" spans="1:10">
@@ -25735,7 +25726,7 @@
         <v>745.97</v>
       </c>
       <c r="J766" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="767" spans="1:10">
@@ -25767,7 +25758,7 @@
         <v>745.97</v>
       </c>
       <c r="J767" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="768" spans="1:10">
@@ -25799,7 +25790,7 @@
         <v>745.97</v>
       </c>
       <c r="J768" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="769" spans="1:10">
@@ -25831,7 +25822,7 @@
         <v>745.97</v>
       </c>
       <c r="J769" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="770" spans="1:10">
@@ -25863,7 +25854,7 @@
         <v>745.97</v>
       </c>
       <c r="J770" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="771" spans="1:10">
@@ -25895,7 +25886,7 @@
         <v>745.97</v>
       </c>
       <c r="J771" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
